--- a/outputs-HGR-r202/test-g__CAG-81_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__CAG-81_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Row</t>
   </si>
@@ -109,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,14 +119,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,33 +154,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -202,7 +206,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -228,7 +232,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -254,7 +258,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -280,289 +284,289 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.91957800894861863</v>
+        <v>0.0066525835912395323</v>
       </c>
       <c r="C6">
-        <v>0.011042225948410846</v>
+        <v>0.10760731426134579</v>
       </c>
       <c r="D6">
-        <v>0.061256308083928852</v>
+        <v>0.20244803987635979</v>
       </c>
       <c r="E6">
-        <v>0.004244333794535711</v>
+        <v>0.67785501196339071</v>
       </c>
       <c r="F6">
-        <v>0.0038664493569436592</v>
+        <v>0.005384218779501404</v>
       </c>
       <c r="G6">
-        <v>1.2673867562298157e-05</v>
+        <v>5.283152816265176e-05</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0066525835912395323</v>
+        <v>0.9587109298370925</v>
       </c>
       <c r="C7">
-        <v>0.10760731426134579</v>
+        <v>0.013165296242154649</v>
       </c>
       <c r="D7">
-        <v>0.20244803987635979</v>
+        <v>0.012225720035813872</v>
       </c>
       <c r="E7">
-        <v>0.67785501196339071</v>
+        <v>0.01538904512756515</v>
       </c>
       <c r="F7">
-        <v>0.005384218779501404</v>
+        <v>0.00050032738286702504</v>
       </c>
       <c r="G7">
-        <v>5.283152816265176e-05</v>
+        <v>8.6813745068948734e-06</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.961170919435551</v>
+      </c>
+      <c r="C8">
+        <v>0.012305503284727402</v>
+      </c>
+      <c r="D8">
+        <v>0.013358604059970971</v>
+      </c>
+      <c r="E8">
+        <v>0.012612889535726618</v>
+      </c>
+      <c r="F8">
+        <v>0.00054353972358288382</v>
+      </c>
+      <c r="G8">
+        <v>8.5439604410567409e-06</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.01476397762599267</v>
+      </c>
+      <c r="C9">
+        <v>0.11285237354483897</v>
+      </c>
+      <c r="D9">
+        <v>0.40155738299170785</v>
+      </c>
+      <c r="E9">
+        <v>0.45763623439923323</v>
+      </c>
+      <c r="F9">
+        <v>0.013157872430750565</v>
+      </c>
+      <c r="G9">
+        <v>3.2159007476559311e-05</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.9587109298370925</v>
-      </c>
-      <c r="C8">
-        <v>0.013165296242154649</v>
-      </c>
-      <c r="D8">
-        <v>0.012225720035813872</v>
-      </c>
-      <c r="E8">
-        <v>0.01538904512756515</v>
-      </c>
-      <c r="F8">
-        <v>0.00050032738286702504</v>
-      </c>
-      <c r="G8">
-        <v>8.6813745068948734e-06</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.95235271535413046</v>
-      </c>
-      <c r="C9">
-        <v>0.012955088717390179</v>
-      </c>
-      <c r="D9">
-        <v>0.027648700936079212</v>
-      </c>
-      <c r="E9">
-        <v>0.0055089669870280198</v>
-      </c>
-      <c r="F9">
-        <v>0.0015276584492731561</v>
-      </c>
-      <c r="G9">
-        <v>6.8695560989626445e-06</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.961170919435551</v>
+        <v>0.93175232788865414</v>
       </c>
       <c r="C10">
-        <v>0.012305503284727402</v>
+        <v>0.014845324822609061</v>
       </c>
       <c r="D10">
-        <v>0.013358604059970971</v>
+        <v>0.047189013321928402</v>
       </c>
       <c r="E10">
-        <v>0.012612889535726618</v>
+        <v>0.0046744274572938557</v>
       </c>
       <c r="F10">
-        <v>0.00054353972358288382</v>
+        <v>0.0015210050119603218</v>
       </c>
       <c r="G10">
-        <v>8.5439604410567409e-06</v>
+        <v>1.7901497554311195e-05</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.01476397762599267</v>
+        <v>0.90171710717352072</v>
       </c>
       <c r="C11">
-        <v>0.11285237354483897</v>
+        <v>0.010845004497822349</v>
       </c>
       <c r="D11">
-        <v>0.40155738299170785</v>
+        <v>0.078678940481037338</v>
       </c>
       <c r="E11">
-        <v>0.45763623439923323</v>
+        <v>0.0033528250392398486</v>
       </c>
       <c r="F11">
-        <v>0.013157872430750565</v>
+        <v>0.0054032731473892199</v>
       </c>
       <c r="G11">
-        <v>3.2159007476559311e-05</v>
+        <v>2.849660990471097e-06</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.018836171890174152</v>
+      </c>
+      <c r="C12">
+        <v>0.12810449781924124</v>
+      </c>
+      <c r="D12">
+        <v>0.26100756452856222</v>
+      </c>
+      <c r="E12">
+        <v>0.58784453895790756</v>
+      </c>
+      <c r="F12">
+        <v>0.0041071028145620424</v>
+      </c>
+      <c r="G12">
+        <v>0.00010012398955288384</v>
+      </c>
+      <c r="H12">
         <v>4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.93175232788865414</v>
-      </c>
-      <c r="C12">
-        <v>0.014845324822609061</v>
-      </c>
-      <c r="D12">
-        <v>0.047189013321928402</v>
-      </c>
-      <c r="E12">
-        <v>0.0046744274572938557</v>
-      </c>
-      <c r="F12">
-        <v>0.0015210050119603218</v>
-      </c>
-      <c r="G12">
-        <v>1.7901497554311195e-05</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.90171710717352072</v>
+        <v>0.93949902620366643</v>
       </c>
       <c r="C13">
-        <v>0.010845004497822349</v>
+        <v>0.012746273695777046</v>
       </c>
       <c r="D13">
-        <v>0.078678940481037338</v>
+        <v>0.043128706151527925</v>
       </c>
       <c r="E13">
-        <v>0.0033528250392398486</v>
+        <v>0.0033685168143043473</v>
       </c>
       <c r="F13">
-        <v>0.0054032731473892199</v>
+        <v>0.0012514854908798993</v>
       </c>
       <c r="G13">
-        <v>2.849660990471097e-06</v>
+        <v>5.9916438442479229e-06</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.018836171890174152</v>
+        <v>0.013495428963977972</v>
       </c>
       <c r="C14">
-        <v>0.12810449781924124</v>
+        <v>0.054589937101064169</v>
       </c>
       <c r="D14">
-        <v>0.26100756452856222</v>
+        <v>0.09807185490537898</v>
       </c>
       <c r="E14">
-        <v>0.58784453895790756</v>
+        <v>0.82708013873098185</v>
       </c>
       <c r="F14">
-        <v>0.0041071028145620424</v>
+        <v>0.0066514441033981185</v>
       </c>
       <c r="G14">
-        <v>0.00010012398955288384</v>
+        <v>0.00011119619519892108</v>
       </c>
       <c r="H14">
         <v>4</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.93949902620366643</v>
+        <v>0.9594782488115825</v>
       </c>
       <c r="C15">
-        <v>0.012746273695777046</v>
+        <v>0.013379010203482573</v>
       </c>
       <c r="D15">
-        <v>0.043128706151527925</v>
+        <v>0.018253735722058524</v>
       </c>
       <c r="E15">
-        <v>0.0033685168143043473</v>
+        <v>0.0080861006923177887</v>
       </c>
       <c r="F15">
-        <v>0.0012514854908798993</v>
+        <v>0.00077895037159617922</v>
       </c>
       <c r="G15">
-        <v>5.9916438442479229e-06</v>
+        <v>2.3954198962423436e-05</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.013495428963977972</v>
+        <v>0.95969222813384958</v>
       </c>
       <c r="C16">
-        <v>0.054589937101064169</v>
+        <v>0.013679844462707046</v>
       </c>
       <c r="D16">
-        <v>0.09807185490537898</v>
+        <v>0.011414703926064919</v>
       </c>
       <c r="E16">
-        <v>0.82708013873098185</v>
+        <v>0.014253704131588572</v>
       </c>
       <c r="F16">
-        <v>0.0066514441033981185</v>
+        <v>0.00094580445994672086</v>
       </c>
       <c r="G16">
-        <v>0.00011119619519892108</v>
+        <v>1.3714885843138993e-05</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
